--- a/Bobik/targets.xlsx
+++ b/Bobik/targets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MalwareAnalysis\Bobik\Doc\ioc-bobik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D8C47B-4FEF-4E77-BA12-052D921E6A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB772B1-C3B3-4BAE-BB2B-7E36087AE2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CFD711FE-C59D-4A3E-B208-D116BC8425E0}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" xr2:uid="{CFD711FE-C59D-4A3E-B208-D116BC8425E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bobiks’ Targets" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5524" uniqueCount="1034">
   <si>
     <t>Website-URL</t>
   </si>
@@ -2941,9 +2941,6 @@
     <t>cdo.org.ua</t>
   </si>
   <si>
-    <t>Zherelo</t>
-  </si>
-  <si>
     <t>company.shodennik.ua</t>
   </si>
   <si>
@@ -3037,9 +3034,6 @@
     <t>chat.cdo.org.ua</t>
   </si>
   <si>
-    <t>CDE</t>
-  </si>
-  <si>
     <t>check.cambridge.ua</t>
   </si>
   <si>
@@ -3128,6 +3122,24 @@
   </si>
   <si>
     <t>Wojskowe Centrum Normalizacji, Jakoœci i Kodyfikacji</t>
+  </si>
+  <si>
+    <t>do.mlt.gov.ua</t>
+  </si>
+  <si>
+    <t>Education Online</t>
+  </si>
+  <si>
+    <t>auth.cdu.edu.ua</t>
+  </si>
+  <si>
+    <t>osvita.diia.gov.ua</t>
+  </si>
+  <si>
+    <t>Cherkasy National University</t>
+  </si>
+  <si>
+    <t>Diia. Digital Education</t>
   </si>
 </sst>
 </file>
@@ -3136,7 +3148,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
-    <numFmt numFmtId="174" formatCode="[$-C09]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-C09]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -3265,7 +3277,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3287,7 +3299,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3614,11 +3626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B729E0AF-DE06-4017-8E83-938C54D65EB2}">
-  <dimension ref="A1:XFD1546"/>
+  <dimension ref="A1:XFD1566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A1512" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1525" sqref="A1525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5897,7 +5909,7 @@
         <v>95</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C178" s="12" t="s">
         <v>97</v>
@@ -7124,7 +7136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="273" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A273" s="13" t="s">
         <v>437</v>
       </c>
@@ -7138,7 +7150,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="274" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
         <v>438</v>
       </c>
@@ -7152,7 +7164,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="275" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A275" s="11" t="s">
         <v>191</v>
       </c>
@@ -7166,7 +7178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="276" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A276" s="11" t="s">
         <v>447</v>
       </c>
@@ -7180,7 +7192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="277" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A277" s="11" t="s">
         <v>196</v>
       </c>
@@ -7194,7 +7206,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="278" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
         <v>441</v>
       </c>
@@ -7208,7 +7220,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="279" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A279" s="11"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -23602,7 +23614,7 @@
       <c r="XFC280" s="2"/>
       <c r="XFD280" s="3"/>
     </row>
-    <row r="281" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A281" s="11" t="s">
         <v>187</v>
       </c>
@@ -23616,7 +23628,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="282" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
         <v>110</v>
       </c>
@@ -23630,7 +23642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="283" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
         <v>443</v>
       </c>
@@ -23644,7 +23656,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="284" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A284" s="11" t="s">
         <v>117</v>
       </c>
@@ -23658,7 +23670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="285" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A285" s="11" t="s">
         <v>119</v>
       </c>
@@ -23672,7 +23684,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="286" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A286" s="11" t="s">
         <v>445</v>
       </c>
@@ -23686,7 +23698,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="287" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A287" s="11" t="s">
         <v>189</v>
       </c>
@@ -23700,7 +23712,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="288" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A288" s="11" t="s">
         <v>124</v>
       </c>
@@ -23714,7 +23726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="289" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
         <v>191</v>
       </c>
@@ -23728,7 +23740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="290" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A290" s="11" t="s">
         <v>447</v>
       </c>
@@ -23742,7 +23754,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="291" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A291" s="11" t="s">
         <v>196</v>
       </c>
@@ -23756,7 +23768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="292" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A292" s="11" t="s">
         <v>129</v>
       </c>
@@ -23770,7 +23782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="293" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A293" s="11" t="s">
         <v>352</v>
       </c>
@@ -23784,7 +23796,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="294" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A294" s="11"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -40178,7 +40190,7 @@
       <c r="XFC295" s="2"/>
       <c r="XFD295" s="3"/>
     </row>
-    <row r="296" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A296" s="11" t="s">
         <v>110</v>
       </c>
@@ -40192,7 +40204,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="297" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A297" s="11" t="s">
         <v>112</v>
       </c>
@@ -40206,7 +40218,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="298" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A298" s="11" t="s">
         <v>116</v>
       </c>
@@ -40220,7 +40232,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="299" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A299" s="11" t="s">
         <v>117</v>
       </c>
@@ -40234,7 +40246,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="300" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A300" s="11" t="s">
         <v>119</v>
       </c>
@@ -40248,7 +40260,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="301" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A301" s="11" t="s">
         <v>120</v>
       </c>
@@ -40262,7 +40274,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="302" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A302" s="11" t="s">
         <v>123</v>
       </c>
@@ -40276,7 +40288,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="303" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
         <v>124</v>
       </c>
@@ -40290,7 +40302,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="304" spans="1:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A304" s="11" t="s">
         <v>126</v>
       </c>
@@ -41429,7 +41441,7 @@
         <v>359</v>
       </c>
       <c r="B392" s="12" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C392" s="12" t="s">
         <v>217</v>
@@ -41471,7 +41483,7 @@
         <v>363</v>
       </c>
       <c r="B395" s="12" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C395" s="12" t="s">
         <v>217</v>
@@ -41625,7 +41637,7 @@
         <v>359</v>
       </c>
       <c r="B407" s="12" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C407" s="12" t="s">
         <v>217</v>
@@ -41709,7 +41721,7 @@
         <v>363</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C413" s="12" t="s">
         <v>217</v>
@@ -41877,7 +41889,7 @@
         <v>387</v>
       </c>
       <c r="B426" s="12" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C426" s="12" t="s">
         <v>82</v>
@@ -42045,7 +42057,7 @@
         <v>387</v>
       </c>
       <c r="B439" s="12" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C439" s="12" t="s">
         <v>82</v>
@@ -42283,7 +42295,7 @@
         <v>387</v>
       </c>
       <c r="B457" s="12" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C457" s="12" t="s">
         <v>82</v>
@@ -46021,7 +46033,7 @@
         <v>532</v>
       </c>
       <c r="B744" s="24" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C744" s="14" t="s">
         <v>533</v>
@@ -46203,7 +46215,7 @@
         <v>532</v>
       </c>
       <c r="B758" s="24" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C758" s="14" t="s">
         <v>533</v>
@@ -49040,7 +49052,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="975" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" s="11" t="s">
         <v>698</v>
       </c>
@@ -49054,7 +49066,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="976" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" s="11" t="s">
         <v>699</v>
       </c>
@@ -49068,8 +49080,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="977" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="978" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978" s="20">
         <v>44789</v>
       </c>
@@ -49077,7 +49088,7 @@
       <c r="C978" s="16"/>
       <c r="D978" s="17"/>
     </row>
-    <row r="979" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979" s="11" t="s">
         <v>689</v>
       </c>
@@ -49091,7 +49102,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="980" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980" s="11" t="s">
         <v>691</v>
       </c>
@@ -49105,7 +49116,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="981" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981" s="11" t="s">
         <v>701</v>
       </c>
@@ -49119,7 +49130,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="982" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982" s="11" t="s">
         <v>703</v>
       </c>
@@ -49133,7 +49144,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="983" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983" s="11" t="s">
         <v>704</v>
       </c>
@@ -49147,7 +49158,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="984" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984" s="11" t="s">
         <v>706</v>
       </c>
@@ -49161,7 +49172,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="985" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A985" s="11" t="s">
         <v>708</v>
       </c>
@@ -49175,7 +49186,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="986" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986" s="11" t="s">
         <v>710</v>
       </c>
@@ -49189,7 +49200,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="987" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987" s="11" t="s">
         <v>693</v>
       </c>
@@ -49203,7 +49214,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="988" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" s="11" t="s">
         <v>694</v>
       </c>
@@ -49217,7 +49228,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="989" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" s="11" t="s">
         <v>712</v>
       </c>
@@ -49231,7 +49242,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="990" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990" s="11" t="s">
         <v>713</v>
       </c>
@@ -49245,7 +49256,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="991" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A991" s="11" t="s">
         <v>696</v>
       </c>
@@ -49259,7 +49270,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="992" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992" s="11" t="s">
         <v>715</v>
       </c>
@@ -49273,7 +49284,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="993" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A993" s="11" t="s">
         <v>698</v>
       </c>
@@ -49287,7 +49298,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="994" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A994" s="13" t="s">
         <v>717</v>
       </c>
@@ -49301,7 +49312,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="995" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A995" s="11" t="s">
         <v>699</v>
       </c>
@@ -49315,13 +49326,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="996" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A996" s="18"/>
       <c r="B996" s="14"/>
       <c r="C996" s="14"/>
       <c r="D996" s="19"/>
     </row>
-    <row r="997" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A997" s="20">
         <v>44790</v>
       </c>
@@ -49329,7 +49340,7 @@
       <c r="C997" s="16"/>
       <c r="D997" s="17"/>
     </row>
-    <row r="998" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A998" s="11" t="s">
         <v>718</v>
       </c>
@@ -49343,7 +49354,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="999" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A999" s="11" t="s">
         <v>720</v>
       </c>
@@ -49357,7 +49368,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1000" s="11" t="s">
         <v>701</v>
       </c>
@@ -49371,7 +49382,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1001" s="11" t="s">
         <v>722</v>
       </c>
@@ -49385,7 +49396,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1002" s="11" t="s">
         <v>704</v>
       </c>
@@ -49399,7 +49410,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1003" s="11" t="s">
         <v>724</v>
       </c>
@@ -49413,7 +49424,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1004" s="11" t="s">
         <v>726</v>
       </c>
@@ -49427,7 +49438,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1005" s="11" t="s">
         <v>706</v>
       </c>
@@ -49441,7 +49452,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1006" s="11" t="s">
         <v>728</v>
       </c>
@@ -49455,7 +49466,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1007" s="11" t="s">
         <v>730</v>
       </c>
@@ -49469,7 +49480,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1008" s="11" t="s">
         <v>710</v>
       </c>
@@ -49483,7 +49494,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1009" s="11" t="s">
         <v>732</v>
       </c>
@@ -49497,7 +49508,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1010" s="11" t="s">
         <v>712</v>
       </c>
@@ -49511,7 +49522,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1011" s="11" t="s">
         <v>734</v>
       </c>
@@ -49525,7 +49536,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1012" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1012" s="11" t="s">
         <v>736</v>
       </c>
@@ -49539,7 +49550,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1013" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1013" s="11" t="s">
         <v>713</v>
       </c>
@@ -49553,7 +49564,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1014" s="11" t="s">
         <v>738</v>
       </c>
@@ -49567,7 +49578,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1015" s="11" t="s">
         <v>715</v>
       </c>
@@ -49581,7 +49592,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1016" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1016" s="13" t="s">
         <v>717</v>
       </c>
@@ -49595,13 +49606,13 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1017" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1017" s="18"/>
       <c r="B1017" s="14"/>
       <c r="C1017" s="14"/>
       <c r="D1017" s="19"/>
     </row>
-    <row r="1018" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1018" s="20">
         <v>44791</v>
       </c>
@@ -49609,7 +49620,7 @@
       <c r="C1018" s="16"/>
       <c r="D1018" s="17"/>
     </row>
-    <row r="1019" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1019" s="11" t="s">
         <v>718</v>
       </c>
@@ -49623,7 +49634,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1020" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1020" s="11" t="s">
         <v>720</v>
       </c>
@@ -49637,7 +49648,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1021" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1021" s="11" t="s">
         <v>701</v>
       </c>
@@ -49651,7 +49662,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1022" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1022" s="11" t="s">
         <v>722</v>
       </c>
@@ -49665,7 +49676,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1023" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1023" s="11" t="s">
         <v>704</v>
       </c>
@@ -49679,7 +49690,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1024" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1024" s="11" t="s">
         <v>724</v>
       </c>
@@ -49693,7 +49704,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1025" s="11" t="s">
         <v>726</v>
       </c>
@@ -49707,7 +49718,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1026" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1026" s="11" t="s">
         <v>728</v>
       </c>
@@ -49721,7 +49732,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1027" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1027" s="11" t="s">
         <v>730</v>
       </c>
@@ -49735,7 +49746,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1028" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1028" s="11" t="s">
         <v>710</v>
       </c>
@@ -49749,7 +49760,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1029" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1029" s="11" t="s">
         <v>732</v>
       </c>
@@ -49763,7 +49774,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1030" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1030" s="11" t="s">
         <v>734</v>
       </c>
@@ -49777,7 +49788,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1031" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1031" s="11" t="s">
         <v>736</v>
       </c>
@@ -49791,7 +49802,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1032" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1032" s="11" t="s">
         <v>713</v>
       </c>
@@ -49805,7 +49816,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1033" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1033" s="11" t="s">
         <v>738</v>
       </c>
@@ -49819,7 +49830,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1034" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1034" s="11" t="s">
         <v>715</v>
       </c>
@@ -49833,13 +49844,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1035" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1035" s="18"/>
       <c r="B1035" s="14"/>
       <c r="C1035" s="14"/>
       <c r="D1035" s="19"/>
     </row>
-    <row r="1036" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1036" s="20">
         <v>44792</v>
       </c>
@@ -49847,7 +49858,7 @@
       <c r="C1036" s="16"/>
       <c r="D1036" s="17"/>
     </row>
-    <row r="1037" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1037" s="11" t="s">
         <v>718</v>
       </c>
@@ -49861,7 +49872,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1038" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1038" s="11" t="s">
         <v>720</v>
       </c>
@@ -49875,7 +49886,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1039" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1039" s="11" t="s">
         <v>701</v>
       </c>
@@ -49889,7 +49900,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1040" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1040" s="11" t="s">
         <v>722</v>
       </c>
@@ -49903,7 +49914,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1041" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1041" s="11" t="s">
         <v>704</v>
       </c>
@@ -49917,7 +49928,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1042" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1042" s="11" t="s">
         <v>724</v>
       </c>
@@ -49931,7 +49942,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1043" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1043" s="11" t="s">
         <v>726</v>
       </c>
@@ -49945,7 +49956,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1044" s="11" t="s">
         <v>740</v>
       </c>
@@ -49959,7 +49970,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1045" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1045" s="11" t="s">
         <v>728</v>
       </c>
@@ -49973,7 +49984,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1046" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1046" s="11" t="s">
         <v>742</v>
       </c>
@@ -49987,7 +49998,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1047" s="11" t="s">
         <v>544</v>
       </c>
@@ -50001,7 +50012,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1048" s="11" t="s">
         <v>730</v>
       </c>
@@ -50015,7 +50026,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1049" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1049" s="11" t="s">
         <v>546</v>
       </c>
@@ -50029,7 +50040,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1050" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1050" s="11" t="s">
         <v>710</v>
       </c>
@@ -50043,7 +50054,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1051" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1051" s="11" t="s">
         <v>732</v>
       </c>
@@ -50057,7 +50068,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1052" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1052" s="11" t="s">
         <v>558</v>
       </c>
@@ -50071,7 +50082,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1053" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1053" s="11" t="s">
         <v>743</v>
       </c>
@@ -50085,7 +50096,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1054" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1054" s="11" t="s">
         <v>550</v>
       </c>
@@ -50099,7 +50110,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1055" s="11" t="s">
         <v>734</v>
       </c>
@@ -50113,7 +50124,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1056" s="11" t="s">
         <v>736</v>
       </c>
@@ -50127,7 +50138,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1057" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1057" s="11" t="s">
         <v>713</v>
       </c>
@@ -50141,7 +50152,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1058" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1058" s="11" t="s">
         <v>562</v>
       </c>
@@ -50155,7 +50166,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1059" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1059" s="11" t="s">
         <v>738</v>
       </c>
@@ -50169,7 +50180,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1060" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1060" s="11" t="s">
         <v>715</v>
       </c>
@@ -50183,7 +50194,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1061" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1061" s="11" t="s">
         <v>744</v>
       </c>
@@ -50197,7 +50208,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1062" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1062" s="11" t="s">
         <v>745</v>
       </c>
@@ -50211,7 +50222,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1063" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1063" s="11" t="s">
         <v>564</v>
       </c>
@@ -50225,7 +50236,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1064" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1064" s="11" t="s">
         <v>746</v>
       </c>
@@ -50239,7 +50250,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1065" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1065" s="11" t="s">
         <v>566</v>
       </c>
@@ -50253,13 +50264,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1066" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1066" s="18"/>
       <c r="B1066" s="14"/>
       <c r="C1066" s="14"/>
       <c r="D1066" s="19"/>
     </row>
-    <row r="1067" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1067" s="20">
         <v>44793</v>
       </c>
@@ -50267,7 +50278,7 @@
       <c r="C1067" s="16"/>
       <c r="D1067" s="17"/>
     </row>
-    <row r="1068" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1068" s="11" t="s">
         <v>601</v>
       </c>
@@ -50281,7 +50292,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1069" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1069" s="11" t="s">
         <v>597</v>
       </c>
@@ -50295,7 +50306,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1070" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1070" s="11" t="s">
         <v>740</v>
       </c>
@@ -50309,7 +50320,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1071" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1071" s="11" t="s">
         <v>747</v>
       </c>
@@ -50323,7 +50334,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1072" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1072" s="11" t="s">
         <v>742</v>
       </c>
@@ -50337,7 +50348,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1073" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1073" s="11" t="s">
         <v>544</v>
       </c>
@@ -50351,7 +50362,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1074" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1074" s="11" t="s">
         <v>546</v>
       </c>
@@ -50365,7 +50376,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1075" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1075" s="11" t="s">
         <v>749</v>
       </c>
@@ -50379,7 +50390,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1076" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1076" s="11" t="s">
         <v>558</v>
       </c>
@@ -50393,7 +50404,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1077" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1077" s="11" t="s">
         <v>743</v>
       </c>
@@ -50407,7 +50418,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1078" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1078" s="11" t="s">
         <v>751</v>
       </c>
@@ -50421,7 +50432,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1079" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1079" s="11" t="s">
         <v>753</v>
       </c>
@@ -50435,7 +50446,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1080" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1080" s="11" t="s">
         <v>550</v>
       </c>
@@ -50449,7 +50460,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1081" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1081" s="11" t="s">
         <v>755</v>
       </c>
@@ -50463,7 +50474,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1082" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1082" s="11" t="s">
         <v>562</v>
       </c>
@@ -50477,7 +50488,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1083" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1083" s="11" t="s">
         <v>757</v>
       </c>
@@ -50491,7 +50502,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1084" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1084" s="11" t="s">
         <v>744</v>
       </c>
@@ -50505,7 +50516,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1085" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1085" s="11" t="s">
         <v>745</v>
       </c>
@@ -50519,7 +50530,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1086" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1086" s="11" t="s">
         <v>564</v>
       </c>
@@ -50533,7 +50544,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1087" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1087" s="11" t="s">
         <v>759</v>
       </c>
@@ -50547,7 +50558,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1088" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1088" s="11" t="s">
         <v>746</v>
       </c>
@@ -50561,7 +50572,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1089" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1089" s="11" t="s">
         <v>566</v>
       </c>
@@ -50575,13 +50586,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1090" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1090" s="18"/>
       <c r="B1090" s="14"/>
       <c r="C1090" s="14"/>
       <c r="D1090" s="15"/>
     </row>
-    <row r="1091" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1091" s="20">
         <v>44794</v>
       </c>
@@ -50589,7 +50600,7 @@
       <c r="C1091" s="16"/>
       <c r="D1091" s="17"/>
     </row>
-    <row r="1092" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1092" s="11" t="s">
         <v>601</v>
       </c>
@@ -50603,7 +50614,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1093" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1093" s="11" t="s">
         <v>761</v>
       </c>
@@ -50617,7 +50628,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1094" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1094" s="11" t="s">
         <v>597</v>
       </c>
@@ -50631,7 +50642,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1095" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1095" s="11" t="s">
         <v>740</v>
       </c>
@@ -50645,7 +50656,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1096" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1096" s="11" t="s">
         <v>747</v>
       </c>
@@ -50659,7 +50670,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1097" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1097" s="11" t="s">
         <v>763</v>
       </c>
@@ -50673,7 +50684,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1098" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1098" s="11" t="s">
         <v>766</v>
       </c>
@@ -50687,7 +50698,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1099" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1099" s="11" t="s">
         <v>749</v>
       </c>
@@ -50701,7 +50712,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1100" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1100" s="11" t="s">
         <v>769</v>
       </c>
@@ -50715,7 +50726,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1101" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1101" s="11" t="s">
         <v>558</v>
       </c>
@@ -50729,7 +50740,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1102" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1102" s="11" t="s">
         <v>743</v>
       </c>
@@ -50743,7 +50754,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1103" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1103" s="11" t="s">
         <v>770</v>
       </c>
@@ -50757,7 +50768,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1104" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1104" s="11" t="s">
         <v>751</v>
       </c>
@@ -50771,7 +50782,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1105" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1105" s="11" t="s">
         <v>753</v>
       </c>
@@ -50785,7 +50796,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1106" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1106" s="11" t="s">
         <v>550</v>
       </c>
@@ -50799,7 +50810,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1107" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1107" s="11" t="s">
         <v>771</v>
       </c>
@@ -50813,7 +50824,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1108" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1108" s="11" t="s">
         <v>772</v>
       </c>
@@ -50827,7 +50838,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1109" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1109" s="11" t="s">
         <v>773</v>
       </c>
@@ -50841,7 +50852,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1110" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1110" s="11" t="s">
         <v>755</v>
       </c>
@@ -50855,7 +50866,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1111" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1111" s="11" t="s">
         <v>774</v>
       </c>
@@ -50869,7 +50880,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1112" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1112" s="11" t="s">
         <v>757</v>
       </c>
@@ -50883,7 +50894,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1113" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1113" s="11" t="s">
         <v>777</v>
       </c>
@@ -50897,7 +50908,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1114" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1114" s="11" t="s">
         <v>780</v>
       </c>
@@ -50911,7 +50922,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1115" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1115" s="11" t="s">
         <v>782</v>
       </c>
@@ -50925,7 +50936,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1116" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1116" s="11" t="s">
         <v>745</v>
       </c>
@@ -50939,7 +50950,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1117" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1117" s="11" t="s">
         <v>783</v>
       </c>
@@ -50953,7 +50964,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1118" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1118" s="11" t="s">
         <v>759</v>
       </c>
@@ -50967,7 +50978,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1119" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1119" s="11" t="s">
         <v>566</v>
       </c>
@@ -50981,7 +50992,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1120" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1120" s="11" t="s">
         <v>784</v>
       </c>
@@ -50995,13 +51006,13 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1121" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1121" s="18"/>
       <c r="B1121" s="14"/>
       <c r="C1121" s="14"/>
       <c r="D1121" s="19"/>
     </row>
-    <row r="1122" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1122" s="20">
         <v>44795</v>
       </c>
@@ -51009,7 +51020,7 @@
       <c r="C1122" s="16"/>
       <c r="D1122" s="17"/>
     </row>
-    <row r="1123" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1123" s="11" t="s">
         <v>761</v>
       </c>
@@ -51023,7 +51034,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1124" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1124" s="11" t="s">
         <v>786</v>
       </c>
@@ -51037,7 +51048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1125" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1125" s="11" t="s">
         <v>789</v>
       </c>
@@ -51051,7 +51062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1126" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1126" s="11" t="s">
         <v>791</v>
       </c>
@@ -51065,7 +51076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1127" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1127" s="11" t="s">
         <v>793</v>
       </c>
@@ -51079,7 +51090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1128" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1128" s="11" t="s">
         <v>763</v>
       </c>
@@ -51093,7 +51104,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1129" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1129" s="11" t="s">
         <v>795</v>
       </c>
@@ -51107,7 +51118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1130" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1130" s="11" t="s">
         <v>766</v>
       </c>
@@ -51121,7 +51132,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1131" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1131" s="11" t="s">
         <v>797</v>
       </c>
@@ -51135,7 +51146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1132" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1132" s="11" t="s">
         <v>799</v>
       </c>
@@ -51149,7 +51160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1133" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1133" s="11" t="s">
         <v>769</v>
       </c>
@@ -51163,7 +51174,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1134" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1134" s="11" t="s">
         <v>770</v>
       </c>
@@ -51177,7 +51188,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1135" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1135" s="11" t="s">
         <v>801</v>
       </c>
@@ -51191,7 +51202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1136" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1136" s="11" t="s">
         <v>771</v>
       </c>
@@ -51205,7 +51216,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1137" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1137" s="11" t="s">
         <v>772</v>
       </c>
@@ -51219,7 +51230,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1138" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1138" s="11" t="s">
         <v>773</v>
       </c>
@@ -51233,7 +51244,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1139" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1139" s="11" t="s">
         <v>803</v>
       </c>
@@ -51247,7 +51258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1140" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1140" s="11" t="s">
         <v>774</v>
       </c>
@@ -51261,7 +51272,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1141" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1141" s="11" t="s">
         <v>777</v>
       </c>
@@ -51275,7 +51286,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1142" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1142" s="11" t="s">
         <v>780</v>
       </c>
@@ -51289,7 +51300,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1143" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1143" s="11" t="s">
         <v>782</v>
       </c>
@@ -51303,7 +51314,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1144" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1144" s="11" t="s">
         <v>783</v>
       </c>
@@ -51317,7 +51328,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1145" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1145" s="11" t="s">
         <v>784</v>
       </c>
@@ -51331,13 +51342,13 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1146" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1146" s="18"/>
       <c r="B1146" s="14"/>
       <c r="C1146" s="14"/>
       <c r="D1146" s="19"/>
     </row>
-    <row r="1147" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1147" s="20">
         <v>44796</v>
       </c>
@@ -51345,7 +51356,7 @@
       <c r="C1147" s="16"/>
       <c r="D1147" s="17"/>
     </row>
-    <row r="1148" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1148" s="11" t="s">
         <v>805</v>
       </c>
@@ -51359,7 +51370,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1149" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1149" s="11" t="s">
         <v>786</v>
       </c>
@@ -51373,7 +51384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1150" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1150" s="11" t="s">
         <v>807</v>
       </c>
@@ -51387,7 +51398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1151" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1151" s="11" t="s">
         <v>809</v>
       </c>
@@ -51401,7 +51412,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1152" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1152" s="11" t="s">
         <v>810</v>
       </c>
@@ -51415,7 +51426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1153" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1153" s="11" t="s">
         <v>812</v>
       </c>
@@ -51429,7 +51440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1154" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1154" s="11" t="s">
         <v>814</v>
       </c>
@@ -51443,7 +51454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1155" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1155" s="11" t="s">
         <v>816</v>
       </c>
@@ -51457,7 +51468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1156" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1156" s="11" t="s">
         <v>789</v>
       </c>
@@ -51471,7 +51482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1157" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1157" s="11" t="s">
         <v>818</v>
       </c>
@@ -51485,7 +51496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1158" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1158" s="11" t="s">
         <v>791</v>
       </c>
@@ -51499,7 +51510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1159" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1159" s="11" t="s">
         <v>820</v>
       </c>
@@ -51513,7 +51524,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1160" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1160" s="11" t="s">
         <v>821</v>
       </c>
@@ -51527,7 +51538,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1161" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1161" s="11" t="s">
         <v>793</v>
       </c>
@@ -51541,7 +51552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1162" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1162" s="11" t="s">
         <v>822</v>
       </c>
@@ -51555,7 +51566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1163" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1163" s="11" t="s">
         <v>795</v>
       </c>
@@ -51569,7 +51580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1164" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1164" s="11" t="s">
         <v>824</v>
       </c>
@@ -51583,7 +51594,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1165" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1165" s="11" t="s">
         <v>825</v>
       </c>
@@ -51597,7 +51608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1166" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1166" s="11" t="s">
         <v>827</v>
       </c>
@@ -51611,7 +51622,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1167" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1167" s="11" t="s">
         <v>828</v>
       </c>
@@ -51625,7 +51636,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1168" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1168" s="11" t="s">
         <v>829</v>
       </c>
@@ -51639,7 +51650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1169" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1169" s="11" t="s">
         <v>831</v>
       </c>
@@ -51653,7 +51664,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1170" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1170" s="11" t="s">
         <v>833</v>
       </c>
@@ -51667,7 +51678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1171" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1171" s="11" t="s">
         <v>835</v>
       </c>
@@ -51681,7 +51692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1172" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1172" s="11" t="s">
         <v>837</v>
       </c>
@@ -51695,7 +51706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1173" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1173" s="11" t="s">
         <v>797</v>
       </c>
@@ -51709,7 +51720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1174" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1174" s="11" t="s">
         <v>799</v>
       </c>
@@ -51723,7 +51734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1175" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1175" s="11" t="s">
         <v>839</v>
       </c>
@@ -51737,7 +51748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1176" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1176" s="11" t="s">
         <v>841</v>
       </c>
@@ -51751,7 +51762,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1177" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1177" s="11" t="s">
         <v>842</v>
       </c>
@@ -51765,7 +51776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1178" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1178" s="11" t="s">
         <v>844</v>
       </c>
@@ -51779,7 +51790,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1179" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1179" s="11" t="s">
         <v>845</v>
       </c>
@@ -51793,7 +51804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1180" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1180" s="11" t="s">
         <v>847</v>
       </c>
@@ -51807,7 +51818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1181" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1181" s="11" t="s">
         <v>849</v>
       </c>
@@ -51821,7 +51832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1182" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1182" s="11" t="s">
         <v>851</v>
       </c>
@@ -51835,7 +51846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1183" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1183" s="11" t="s">
         <v>801</v>
       </c>
@@ -51849,7 +51860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1184" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1184" s="11" t="s">
         <v>803</v>
       </c>
@@ -51863,7 +51874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1185" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1185" s="11" t="s">
         <v>853</v>
       </c>
@@ -51877,13 +51888,13 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1186" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1186" s="18"/>
       <c r="B1186" s="14"/>
       <c r="C1186" s="14"/>
       <c r="D1186" s="19"/>
     </row>
-    <row r="1187" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1187" s="20">
         <v>44797</v>
       </c>
@@ -51891,7 +51902,7 @@
       <c r="C1187" s="16"/>
       <c r="D1187" s="17"/>
     </row>
-    <row r="1188" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1188" s="11" t="s">
         <v>805</v>
       </c>
@@ -51905,7 +51916,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1189" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1189" s="11" t="s">
         <v>809</v>
       </c>
@@ -51919,7 +51930,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1190" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1190" s="11" t="s">
         <v>854</v>
       </c>
@@ -51933,7 +51944,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1191" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1191" s="11" t="s">
         <v>814</v>
       </c>
@@ -51947,7 +51958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1192" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1192" s="11" t="s">
         <v>856</v>
       </c>
@@ -51961,7 +51972,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1193" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1193" s="11" t="s">
         <v>859</v>
       </c>
@@ -51975,7 +51986,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1194" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1194" s="11" t="s">
         <v>861</v>
       </c>
@@ -51989,7 +52000,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1195" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1195" s="11" t="s">
         <v>863</v>
       </c>
@@ -52003,7 +52014,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1196" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1196" s="11" t="s">
         <v>820</v>
       </c>
@@ -52017,7 +52028,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1197" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1197" s="11" t="s">
         <v>821</v>
       </c>
@@ -52031,7 +52042,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1198" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1198" s="11" t="s">
         <v>865</v>
       </c>
@@ -52045,7 +52056,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1199" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1199" s="11" t="s">
         <v>822</v>
       </c>
@@ -52059,7 +52070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1200" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1200" s="11" t="s">
         <v>824</v>
       </c>
@@ -52073,7 +52084,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1201" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1201" s="11" t="s">
         <v>827</v>
       </c>
@@ -52087,7 +52098,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1202" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1202" s="11" t="s">
         <v>828</v>
       </c>
@@ -52101,7 +52112,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1203" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1203" s="11" t="s">
         <v>831</v>
       </c>
@@ -52115,7 +52126,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1204" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1204" s="11" t="s">
         <v>835</v>
       </c>
@@ -52129,7 +52140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1205" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1205" s="11" t="s">
         <v>868</v>
       </c>
@@ -52143,7 +52154,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1206" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1206" s="11" t="s">
         <v>870</v>
       </c>
@@ -52157,7 +52168,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1207" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1207" s="11" t="s">
         <v>872</v>
       </c>
@@ -52171,7 +52182,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1208" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1208" s="11" t="s">
         <v>841</v>
       </c>
@@ -52185,7 +52196,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1209" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1209" s="11" t="s">
         <v>844</v>
       </c>
@@ -52199,7 +52210,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1210" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1210" s="11" t="s">
         <v>874</v>
       </c>
@@ -52213,7 +52224,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1211" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1211" s="11" t="s">
         <v>876</v>
       </c>
@@ -52227,7 +52238,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1212" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1212" s="11" t="s">
         <v>878</v>
       </c>
@@ -52241,7 +52252,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1213" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1213" s="11" t="s">
         <v>880</v>
       </c>
@@ -52255,7 +52266,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1214" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1214" s="11" t="s">
         <v>853</v>
       </c>
@@ -52269,7 +52280,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1215" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1215" s="11" t="s">
         <v>882</v>
       </c>
@@ -52283,7 +52294,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1216" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1216" s="11" t="s">
         <v>884</v>
       </c>
@@ -52297,13 +52308,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1217" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1217" s="18"/>
       <c r="B1217" s="14"/>
       <c r="C1217" s="14"/>
       <c r="D1217" s="19"/>
     </row>
-    <row r="1218" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1218" s="20">
         <v>44798</v>
       </c>
@@ -52311,7 +52322,7 @@
       <c r="C1218" s="16"/>
       <c r="D1218" s="17"/>
     </row>
-    <row r="1219" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1219" s="11" t="s">
         <v>854</v>
       </c>
@@ -52325,7 +52336,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1220" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1220" s="11" t="s">
         <v>856</v>
       </c>
@@ -52339,7 +52350,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1221" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1221" s="11" t="s">
         <v>859</v>
       </c>
@@ -52353,7 +52364,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1222" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1222" s="11" t="s">
         <v>886</v>
       </c>
@@ -52367,7 +52378,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1223" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1223" s="11" t="s">
         <v>861</v>
       </c>
@@ -52381,7 +52392,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1224" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1224" s="11" t="s">
         <v>888</v>
       </c>
@@ -52395,7 +52406,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1225" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1225" s="11" t="s">
         <v>863</v>
       </c>
@@ -52409,7 +52420,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1226" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1226" s="11" t="s">
         <v>865</v>
       </c>
@@ -52423,7 +52434,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1227" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1227" s="11" t="s">
         <v>890</v>
       </c>
@@ -52437,7 +52448,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1228" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1228" s="11" t="s">
         <v>361</v>
       </c>
@@ -52451,7 +52462,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1229" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1229" s="11" t="s">
         <v>868</v>
       </c>
@@ -52465,7 +52476,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1230" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1230" s="11" t="s">
         <v>870</v>
       </c>
@@ -52479,7 +52490,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1231" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1231" s="11" t="s">
         <v>872</v>
       </c>
@@ -52493,7 +52504,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1232" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1232" s="11" t="s">
         <v>892</v>
       </c>
@@ -52507,7 +52518,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1233" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1233" s="11" t="s">
         <v>874</v>
       </c>
@@ -52521,7 +52532,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1234" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1234" s="11" t="s">
         <v>876</v>
       </c>
@@ -52535,7 +52546,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1235" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1235" s="11" t="s">
         <v>894</v>
       </c>
@@ -52549,7 +52560,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1236" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1236" s="11" t="s">
         <v>878</v>
       </c>
@@ -52563,7 +52574,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1237" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1237" s="11" t="s">
         <v>896</v>
       </c>
@@ -52577,7 +52588,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1238" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1238" s="11" t="s">
         <v>898</v>
       </c>
@@ -52591,7 +52602,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1239" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1239" s="11" t="s">
         <v>900</v>
       </c>
@@ -52605,7 +52616,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1240" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1240" s="11" t="s">
         <v>880</v>
       </c>
@@ -52619,7 +52630,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1241" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1241" s="11" t="s">
         <v>882</v>
       </c>
@@ -52633,7 +52644,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1242" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1242" s="11" t="s">
         <v>902</v>
       </c>
@@ -52647,7 +52658,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1243" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1243" s="11" t="s">
         <v>884</v>
       </c>
@@ -52661,13 +52672,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1244" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1244" s="18"/>
       <c r="B1244" s="14"/>
       <c r="C1244" s="14"/>
       <c r="D1244" s="19"/>
     </row>
-    <row r="1245" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1245" s="20">
         <v>44799</v>
       </c>
@@ -52675,7 +52686,7 @@
       <c r="C1245" s="16"/>
       <c r="D1245" s="17"/>
     </row>
-    <row r="1246" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1246" s="11" t="s">
         <v>904</v>
       </c>
@@ -52689,7 +52700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1247" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1247" s="11" t="s">
         <v>886</v>
       </c>
@@ -52703,7 +52714,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1248" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1248" s="11" t="s">
         <v>906</v>
       </c>
@@ -52717,7 +52728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1249" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1249" s="11" t="s">
         <v>888</v>
       </c>
@@ -52731,7 +52742,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1250" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1250" s="11" t="s">
         <v>908</v>
       </c>
@@ -52745,7 +52756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1251" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1251" s="11" t="s">
         <v>910</v>
       </c>
@@ -52759,7 +52770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1252" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1252" s="11" t="s">
         <v>912</v>
       </c>
@@ -52773,7 +52784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1253" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1253" s="11" t="s">
         <v>890</v>
       </c>
@@ -52787,7 +52798,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1254" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1254" s="11" t="s">
         <v>361</v>
       </c>
@@ -52801,7 +52812,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1255" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1255" s="11" t="s">
         <v>913</v>
       </c>
@@ -52815,7 +52826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1256" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1256" s="11" t="s">
         <v>914</v>
       </c>
@@ -52829,7 +52840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1257" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1257" s="11" t="s">
         <v>916</v>
       </c>
@@ -52843,7 +52854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1258" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1258" s="11" t="s">
         <v>892</v>
       </c>
@@ -52857,7 +52868,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1259" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1259" s="11" t="s">
         <v>917</v>
       </c>
@@ -52871,7 +52882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1260" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1260" s="11" t="s">
         <v>919</v>
       </c>
@@ -52885,7 +52896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1261" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1261" s="11" t="s">
         <v>894</v>
       </c>
@@ -52899,7 +52910,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1262" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1262" s="11" t="s">
         <v>896</v>
       </c>
@@ -52913,7 +52924,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1263" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1263" s="11" t="s">
         <v>898</v>
       </c>
@@ -52927,7 +52938,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1264" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1264" s="11" t="s">
         <v>923</v>
       </c>
@@ -52941,7 +52952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1265" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1265" s="11" t="s">
         <v>900</v>
       </c>
@@ -52955,7 +52966,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1266" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1266" s="11" t="s">
         <v>902</v>
       </c>
@@ -52969,7 +52980,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="1267" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1267" s="11" t="s">
         <v>924</v>
       </c>
@@ -52983,7 +52994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1268" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1268" s="11" t="s">
         <v>926</v>
       </c>
@@ -52997,13 +53008,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1269" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1269" s="18"/>
       <c r="B1269" s="14"/>
       <c r="C1269" s="14"/>
       <c r="D1269" s="19"/>
     </row>
-    <row r="1270" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1270" s="20">
         <v>44800</v>
       </c>
@@ -53011,7 +53022,7 @@
       <c r="C1270" s="16"/>
       <c r="D1270" s="17"/>
     </row>
-    <row r="1271" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1271" s="11" t="s">
         <v>187</v>
       </c>
@@ -53025,7 +53036,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1272" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1272" s="11" t="s">
         <v>382</v>
       </c>
@@ -53039,7 +53050,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1273" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1273" s="11" t="s">
         <v>180</v>
       </c>
@@ -53053,7 +53064,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1274" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1274" s="11" t="s">
         <v>95</v>
       </c>
@@ -53067,7 +53078,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1275" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1275" s="11" t="s">
         <v>183</v>
       </c>
@@ -53081,7 +53092,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1276" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1276" s="11" t="s">
         <v>199</v>
       </c>
@@ -53095,7 +53106,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1277" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1277" s="11" t="s">
         <v>904</v>
       </c>
@@ -53109,7 +53120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1278" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1278" s="11" t="s">
         <v>906</v>
       </c>
@@ -53123,7 +53134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1279" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1279" s="11" t="s">
         <v>117</v>
       </c>
@@ -53137,7 +53148,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1280" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1280" s="11" t="s">
         <v>928</v>
       </c>
@@ -53151,7 +53162,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1281" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1281" s="11" t="s">
         <v>908</v>
       </c>
@@ -53165,7 +53176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1282" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1282" s="11" t="s">
         <v>930</v>
       </c>
@@ -53179,7 +53190,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1283" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1283" s="11" t="s">
         <v>454</v>
       </c>
@@ -53193,7 +53204,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1284" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1284" s="11" t="s">
         <v>910</v>
       </c>
@@ -53207,7 +53218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1285" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1285" s="11" t="s">
         <v>912</v>
       </c>
@@ -53221,7 +53232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1286" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1286" s="11" t="s">
         <v>932</v>
       </c>
@@ -53235,7 +53246,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1287" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1287" s="11" t="s">
         <v>913</v>
       </c>
@@ -53249,7 +53260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1288" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1288" s="11" t="s">
         <v>914</v>
       </c>
@@ -53263,7 +53274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1289" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1289" s="11" t="s">
         <v>916</v>
       </c>
@@ -53277,7 +53288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1290" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1290" s="11" t="s">
         <v>934</v>
       </c>
@@ -53291,7 +53302,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1291" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1291" s="11" t="s">
         <v>917</v>
       </c>
@@ -53305,7 +53316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1292" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1292" s="11" t="s">
         <v>919</v>
       </c>
@@ -53319,7 +53330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1293" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1293" s="11" t="s">
         <v>936</v>
       </c>
@@ -53333,7 +53344,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1294" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1294" s="11" t="s">
         <v>923</v>
       </c>
@@ -53347,7 +53358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1295" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1295" s="11" t="s">
         <v>924</v>
       </c>
@@ -53361,7 +53372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1296" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1296" s="11" t="s">
         <v>926</v>
       </c>
@@ -53375,13 +53386,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1297" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1297" s="18"/>
       <c r="B1297" s="14"/>
       <c r="C1297" s="14"/>
       <c r="D1297" s="19"/>
     </row>
-    <row r="1298" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1298" s="20">
         <v>44801</v>
       </c>
@@ -53389,7 +53400,7 @@
       <c r="C1298" s="16"/>
       <c r="D1298" s="17"/>
     </row>
-    <row r="1299" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1299" s="11" t="s">
         <v>187</v>
       </c>
@@ -53403,7 +53414,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1300" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1300" s="11" t="s">
         <v>215</v>
       </c>
@@ -53417,7 +53428,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1301" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1301" s="11" t="s">
         <v>382</v>
       </c>
@@ -53431,7 +53442,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1302" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1302" s="11" t="s">
         <v>180</v>
       </c>
@@ -53445,7 +53456,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1303" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1303" s="11" t="s">
         <v>227</v>
       </c>
@@ -53459,7 +53470,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1304" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1304" s="11" t="s">
         <v>229</v>
       </c>
@@ -53473,7 +53484,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1305" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1305" s="11" t="s">
         <v>95</v>
       </c>
@@ -53487,7 +53498,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1306" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1306" s="11" t="s">
         <v>183</v>
       </c>
@@ -53501,7 +53512,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1307" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1307" s="11" t="s">
         <v>199</v>
       </c>
@@ -53515,7 +53526,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1308" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1308" s="13" t="s">
         <v>219</v>
       </c>
@@ -53529,7 +53540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1309" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1309" s="11" t="s">
         <v>117</v>
       </c>
@@ -53543,7 +53554,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1310" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1310" s="11" t="s">
         <v>928</v>
       </c>
@@ -53557,7 +53568,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1311" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1311" s="11" t="s">
         <v>930</v>
       </c>
@@ -53571,7 +53582,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1312" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1312" s="11" t="s">
         <v>221</v>
       </c>
@@ -53585,7 +53596,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1313" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1313" s="11" t="s">
         <v>454</v>
       </c>
@@ -53599,7 +53610,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1314" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1314" s="11" t="s">
         <v>932</v>
       </c>
@@ -53613,7 +53624,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1315" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1315" s="11" t="s">
         <v>231</v>
       </c>
@@ -53627,7 +53638,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1316" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1316" s="11" t="s">
         <v>171</v>
       </c>
@@ -53641,7 +53652,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1317" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1317" s="11" t="s">
         <v>173</v>
       </c>
@@ -53655,7 +53666,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1318" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1318" s="11" t="s">
         <v>174</v>
       </c>
@@ -53669,7 +53680,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1319" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1319" s="11" t="s">
         <v>934</v>
       </c>
@@ -53683,7 +53694,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1320" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1320" s="13" t="s">
         <v>222</v>
       </c>
@@ -53697,7 +53708,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1321" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1321" s="11" t="s">
         <v>936</v>
       </c>
@@ -53711,7 +53722,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1322" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1322" s="13" t="s">
         <v>938</v>
       </c>
@@ -53725,7 +53736,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1323" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1323" s="11" t="s">
         <v>226</v>
       </c>
@@ -53739,13 +53750,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1324" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1324" s="18"/>
       <c r="B1324" s="14"/>
       <c r="C1324" s="14"/>
       <c r="D1324" s="19"/>
     </row>
-    <row r="1325" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1325" s="20">
         <v>44802</v>
       </c>
@@ -53753,7 +53764,7 @@
       <c r="C1325" s="16"/>
       <c r="D1325" s="17"/>
     </row>
-    <row r="1326" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1326" s="11" t="s">
         <v>940</v>
       </c>
@@ -53767,7 +53778,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1327" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1327" s="11" t="s">
         <v>215</v>
       </c>
@@ -53781,7 +53792,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1328" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1328" s="11" t="s">
         <v>942</v>
       </c>
@@ -53795,7 +53806,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1329" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1329" s="11" t="s">
         <v>227</v>
       </c>
@@ -53809,7 +53820,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1330" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1330" s="11" t="s">
         <v>229</v>
       </c>
@@ -53823,7 +53834,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1331" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1331" s="13" t="s">
         <v>219</v>
       </c>
@@ -53837,7 +53848,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1332" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1332" s="11" t="s">
         <v>944</v>
       </c>
@@ -53851,7 +53862,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1333" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1333" s="11" t="s">
         <v>945</v>
       </c>
@@ -53865,7 +53876,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1334" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1334" s="11" t="s">
         <v>221</v>
       </c>
@@ -53879,7 +53890,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="1335" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1335" s="11" t="s">
         <v>203</v>
       </c>
@@ -53893,7 +53904,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="1336" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1336" s="11" t="s">
         <v>231</v>
       </c>
@@ -53907,7 +53918,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="1337" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1337" s="11" t="s">
         <v>949</v>
       </c>
@@ -53921,7 +53932,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1338" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1338" s="11" t="s">
         <v>171</v>
       </c>
@@ -53935,7 +53946,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="1339" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1339" s="11" t="s">
         <v>950</v>
       </c>
@@ -53949,7 +53960,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1340" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1340" s="11" t="s">
         <v>173</v>
       </c>
@@ -53963,7 +53974,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1341" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1341" s="11" t="s">
         <v>174</v>
       </c>
@@ -53977,7 +53988,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1342" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1342" s="11" t="s">
         <v>205</v>
       </c>
@@ -53991,7 +54002,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1343" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1343" s="11" t="s">
         <v>952</v>
       </c>
@@ -54005,7 +54016,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1344" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1344" s="11" t="s">
         <v>207</v>
       </c>
@@ -54019,7 +54030,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1345" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1345" s="13" t="s">
         <v>222</v>
       </c>
@@ -54033,7 +54044,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1346" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1346" s="11" t="s">
         <v>210</v>
       </c>
@@ -54047,7 +54058,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="1347" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1347" s="11" t="s">
         <v>162</v>
       </c>
@@ -54061,7 +54072,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="1348" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1348" s="11" t="s">
         <v>954</v>
       </c>
@@ -54075,7 +54086,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1349" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1349" s="11" t="s">
         <v>955</v>
       </c>
@@ -54089,7 +54100,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1350" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1350" s="13" t="s">
         <v>938</v>
       </c>
@@ -54103,7 +54114,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1351" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1351" s="13" t="s">
         <v>212</v>
       </c>
@@ -54117,7 +54128,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1352" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1352" s="11" t="s">
         <v>214</v>
       </c>
@@ -54131,7 +54142,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1353" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1353" s="11" t="s">
         <v>226</v>
       </c>
@@ -54145,13 +54156,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1354" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1354" s="18"/>
       <c r="B1354" s="14"/>
       <c r="C1354" s="14"/>
       <c r="D1354" s="19"/>
     </row>
-    <row r="1355" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1355" s="20">
         <v>44803</v>
       </c>
@@ -54159,7 +54170,7 @@
       <c r="C1355" s="16"/>
       <c r="D1355" s="17"/>
     </row>
-    <row r="1356" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1356" s="7" t="s">
         <v>940</v>
       </c>
@@ -54173,7 +54184,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1357" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1357" s="7" t="s">
         <v>187</v>
       </c>
@@ -54187,7 +54198,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1358" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1358" s="7" t="s">
         <v>382</v>
       </c>
@@ -54201,7 +54212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1359" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1359" s="7" t="s">
         <v>942</v>
       </c>
@@ -54215,7 +54226,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1360" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1360" s="7" t="s">
         <v>945</v>
       </c>
@@ -54229,7 +54240,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1361" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1361" s="7" t="s">
         <v>383</v>
       </c>
@@ -54243,7 +54254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1362" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1362" s="7" t="s">
         <v>386</v>
       </c>
@@ -54257,7 +54268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1363" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1363" s="7" t="s">
         <v>957</v>
       </c>
@@ -54271,7 +54282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1364" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1364" s="7" t="s">
         <v>203</v>
       </c>
@@ -54285,7 +54296,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1365" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1365" s="7" t="s">
         <v>231</v>
       </c>
@@ -54299,7 +54310,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1366" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1366" s="7" t="s">
         <v>950</v>
       </c>
@@ -54313,7 +54324,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1367" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1367" s="7" t="s">
         <v>205</v>
       </c>
@@ -54327,7 +54338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1368" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1368" s="7" t="s">
         <v>952</v>
       </c>
@@ -54341,7 +54352,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1369" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1369" s="7" t="s">
         <v>175</v>
       </c>
@@ -54355,12 +54366,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1370" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1370" s="7" t="s">
         <v>387</v>
       </c>
       <c r="B1370" s="7" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C1370" s="7" t="s">
         <v>82</v>
@@ -54369,7 +54380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1371" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1371" s="7" t="s">
         <v>210</v>
       </c>
@@ -54383,7 +54394,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1372" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1372" s="7" t="s">
         <v>162</v>
       </c>
@@ -54397,7 +54408,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="1373" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1373" s="7" t="s">
         <v>191</v>
       </c>
@@ -54411,7 +54422,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1374" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1374" s="7" t="s">
         <v>193</v>
       </c>
@@ -54425,7 +54436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1375" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1375" s="7" t="s">
         <v>954</v>
       </c>
@@ -54439,7 +54450,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1376" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1376" s="7" t="s">
         <v>196</v>
       </c>
@@ -54453,7 +54464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1377" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1377" s="7" t="s">
         <v>955</v>
       </c>
@@ -54467,7 +54478,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="1378" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1378" s="7" t="s">
         <v>389</v>
       </c>
@@ -54481,7 +54492,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1379" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1379" s="7" t="s">
         <v>165</v>
       </c>
@@ -54495,7 +54506,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1380" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1380" s="7" t="s">
         <v>214</v>
       </c>
@@ -54509,7 +54520,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1381" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1381" s="7" t="s">
         <v>463</v>
       </c>
@@ -54523,7 +54534,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1382" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1382" s="7" t="s">
         <v>391</v>
       </c>
@@ -54537,7 +54548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1384" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1384" s="20">
         <v>44804</v>
       </c>
@@ -54545,7 +54556,7 @@
       <c r="C1384" s="16"/>
       <c r="D1384" s="17"/>
     </row>
-    <row r="1385" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1385" s="7" t="s">
         <v>502</v>
       </c>
@@ -54559,12 +54570,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1386" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1386" s="7" t="s">
         <v>516</v>
       </c>
       <c r="B1386" s="7" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C1386" s="7" t="s">
         <v>348</v>
@@ -54573,7 +54584,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1387" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1387" s="7" t="s">
         <v>187</v>
       </c>
@@ -54587,7 +54598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1388" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1388" s="7" t="s">
         <v>382</v>
       </c>
@@ -54601,7 +54612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1389" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1389" s="7" t="s">
         <v>518</v>
       </c>
@@ -54615,7 +54626,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1390" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1390" s="7" t="s">
         <v>383</v>
       </c>
@@ -54629,7 +54640,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1391" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1391" s="7" t="s">
         <v>386</v>
       </c>
@@ -54643,7 +54654,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1392" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1392" s="7" t="s">
         <v>957</v>
       </c>
@@ -54657,7 +54668,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1393" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1393" s="7" t="s">
         <v>960</v>
       </c>
@@ -54668,10 +54679,10 @@
         <v>244</v>
       </c>
       <c r="D1393" s="7" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1394" s="7" t="s">
         <v>231</v>
       </c>
@@ -54685,7 +54696,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1395" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1395" s="7" t="s">
         <v>175</v>
       </c>
@@ -54699,12 +54710,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1396" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1396" s="7" t="s">
         <v>387</v>
       </c>
       <c r="B1396" s="7" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C1396" s="7" t="s">
         <v>82</v>
@@ -54713,7 +54724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1397" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1397" s="7" t="s">
         <v>486</v>
       </c>
@@ -54727,7 +54738,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1398" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1398" s="7" t="s">
         <v>492</v>
       </c>
@@ -54741,7 +54752,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1399" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1399" s="7" t="s">
         <v>495</v>
       </c>
@@ -54755,7 +54766,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1400" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1400" s="7" t="s">
         <v>497</v>
       </c>
@@ -54769,7 +54780,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1401" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1401" s="7" t="s">
         <v>500</v>
       </c>
@@ -54783,7 +54794,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1402" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1402" s="7" t="s">
         <v>191</v>
       </c>
@@ -54797,7 +54808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1403" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1403" s="7" t="s">
         <v>504</v>
       </c>
@@ -54811,7 +54822,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1404" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1404" s="7" t="s">
         <v>506</v>
       </c>
@@ -54825,7 +54836,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1405" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1405" s="7" t="s">
         <v>193</v>
       </c>
@@ -54839,7 +54850,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1406" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1406" s="7" t="s">
         <v>508</v>
       </c>
@@ -54853,7 +54864,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1407" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1407" s="7" t="s">
         <v>510</v>
       </c>
@@ -54867,7 +54878,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1408" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1408" s="7" t="s">
         <v>196</v>
       </c>
@@ -54881,7 +54892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1409" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1409" s="7" t="s">
         <v>513</v>
       </c>
@@ -54895,7 +54906,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1410" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1410" s="7" t="s">
         <v>389</v>
       </c>
@@ -54909,7 +54920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1411" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1411" s="7" t="s">
         <v>165</v>
       </c>
@@ -54923,7 +54934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1412" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1412" s="7" t="s">
         <v>463</v>
       </c>
@@ -54937,7 +54948,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1413" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1413" s="7" t="s">
         <v>391</v>
       </c>
@@ -54951,7 +54962,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1415" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1415" s="20">
         <v>44805</v>
       </c>
@@ -54959,7 +54970,7 @@
       <c r="C1415" s="16"/>
       <c r="D1415" s="17"/>
     </row>
-    <row r="1416" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1416" s="7" t="s">
         <v>962</v>
       </c>
@@ -54967,13 +54978,13 @@
         <v>963</v>
       </c>
       <c r="C1416" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1416" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1417" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1417" s="7" t="s">
         <v>964</v>
       </c>
@@ -54981,13 +54992,13 @@
         <v>965</v>
       </c>
       <c r="C1417" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1417" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1418" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1418" s="7" t="s">
         <v>502</v>
       </c>
@@ -55001,12 +55012,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1419" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1419" s="7" t="s">
         <v>516</v>
       </c>
       <c r="B1419" s="7" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C1419" s="7" t="s">
         <v>348</v>
@@ -55015,35 +55026,35 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1420" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1420" s="7" t="s">
         <v>966</v>
       </c>
       <c r="B1420" s="7" t="s">
-        <v>967</v>
+        <v>1015</v>
       </c>
       <c r="C1420" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1420" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1421" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1421" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1421" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="B1421" s="7" t="s">
-        <v>969</v>
-      </c>
       <c r="C1421" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1421" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1422" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1422" s="7" t="s">
         <v>518</v>
       </c>
@@ -55057,49 +55068,49 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1423" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1423" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="B1423" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="B1423" s="7" t="s">
-        <v>971</v>
-      </c>
       <c r="C1423" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1423" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1424" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1424" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="B1424" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="B1424" s="7" t="s">
+      <c r="C1424" s="7" t="s">
         <v>973</v>
-      </c>
-      <c r="C1424" s="7" t="s">
-        <v>974</v>
       </c>
       <c r="D1424" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1425" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1425" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1425" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="B1425" s="7" t="s">
+      <c r="C1425" s="7" t="s">
         <v>976</v>
-      </c>
-      <c r="C1425" s="7" t="s">
-        <v>977</v>
       </c>
       <c r="D1425" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1426" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1426" s="7" t="s">
         <v>960</v>
       </c>
@@ -55113,133 +55124,133 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1427" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1427" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B1427" s="7" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C1427" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1427" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1428" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1428" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B1428" s="7" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C1428" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1428" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1429" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1429" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="B1429" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="B1429" s="7" t="s">
-        <v>981</v>
-      </c>
       <c r="C1429" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1429" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1430" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1430" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1430" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="B1430" s="7" t="s">
-        <v>983</v>
-      </c>
       <c r="C1430" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1430" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1431" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1431" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B1431" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C1431" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1431" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1432" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1432" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1432" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="B1432" s="7" t="s">
-        <v>986</v>
-      </c>
       <c r="C1432" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1432" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1433" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1433" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1433" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="B1433" s="7" t="s">
-        <v>988</v>
-      </c>
       <c r="C1433" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1433" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1434" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1434" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B1434" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C1434" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1434" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1435" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1435" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1435" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="B1435" s="7" t="s">
-        <v>991</v>
-      </c>
       <c r="C1435" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1435" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1436" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1436" s="7" t="s">
         <v>486</v>
       </c>
@@ -55253,7 +55264,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1437" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1437" s="7" t="s">
         <v>492</v>
       </c>
@@ -55267,21 +55278,21 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1438" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1438" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="B1438" s="7" t="s">
         <v>992</v>
       </c>
-      <c r="B1438" s="7" t="s">
-        <v>993</v>
-      </c>
       <c r="C1438" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1438" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1439" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1439" s="7" t="s">
         <v>495</v>
       </c>
@@ -55295,7 +55306,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1440" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1440" s="7" t="s">
         <v>497</v>
       </c>
@@ -55309,7 +55320,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1441" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1441" s="7" t="s">
         <v>500</v>
       </c>
@@ -55323,7 +55334,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1442" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1442" s="7" t="s">
         <v>504</v>
       </c>
@@ -55337,7 +55348,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1443" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1443" s="7" t="s">
         <v>506</v>
       </c>
@@ -55351,7 +55362,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1444" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1444" s="7" t="s">
         <v>508</v>
       </c>
@@ -55365,7 +55376,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1445" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1445" s="7" t="s">
         <v>510</v>
       </c>
@@ -55379,7 +55390,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1446" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1446" s="7" t="s">
         <v>513</v>
       </c>
@@ -55393,7 +55404,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1448" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1448" s="20">
         <v>44806</v>
       </c>
@@ -55401,21 +55412,21 @@
       <c r="C1448" s="16"/>
       <c r="D1448" s="17"/>
     </row>
-    <row r="1449" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1449" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1449" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="B1449" s="7" t="s">
-        <v>995</v>
-      </c>
       <c r="C1449" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1449" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1450" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1450" s="7" t="s">
         <v>964</v>
       </c>
@@ -55423,307 +55434,307 @@
         <v>965</v>
       </c>
       <c r="C1450" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1450" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1451" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1451" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1451" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="B1451" s="7" t="s">
-        <v>997</v>
-      </c>
       <c r="C1451" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1451" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1452" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1452" s="7" t="s">
         <v>966</v>
       </c>
       <c r="B1452" s="7" t="s">
-        <v>967</v>
+        <v>1015</v>
       </c>
       <c r="C1452" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1452" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1453" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1453" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B1453" s="7" t="s">
-        <v>999</v>
+        <v>1015</v>
       </c>
       <c r="C1453" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1453" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1454" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1454" s="7" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B1454" s="7" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C1454" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1454" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1455" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1455" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1455" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="B1455" s="7" t="s">
-        <v>969</v>
-      </c>
       <c r="C1455" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1455" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1456" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1456" s="7" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B1456" s="7" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C1456" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1456" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1457" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1457" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="B1457" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="B1457" s="7" t="s">
+      <c r="C1457" s="7" t="s">
         <v>973</v>
-      </c>
-      <c r="C1457" s="7" t="s">
-        <v>974</v>
       </c>
       <c r="D1457" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1458" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1458" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1458" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="B1458" s="7" t="s">
+      <c r="C1458" s="7" t="s">
         <v>976</v>
-      </c>
-      <c r="C1458" s="7" t="s">
-        <v>977</v>
       </c>
       <c r="D1458" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1459" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1459" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B1459" s="7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C1459" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1459" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1460" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1460" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B1460" s="7" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C1460" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1460" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1461" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1461" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="B1461" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="B1461" s="7" t="s">
-        <v>981</v>
-      </c>
       <c r="C1461" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1461" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1462" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1462" s="7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B1462" s="7" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C1462" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1462" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1463" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1463" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1463" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="B1463" s="7" t="s">
-        <v>983</v>
-      </c>
       <c r="C1463" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1463" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1464" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1464" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B1464" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C1464" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1464" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1465" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1465" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1465" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="B1465" s="7" t="s">
-        <v>986</v>
-      </c>
       <c r="C1465" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1465" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1466" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1466" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1466" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="B1466" s="7" t="s">
-        <v>988</v>
-      </c>
       <c r="C1466" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1466" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1467" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1467" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B1467" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C1467" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1467" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1468" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1468" s="7" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B1468" s="7" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C1468" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1468" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1469" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1469" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1469" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="B1469" s="7" t="s">
-        <v>991</v>
-      </c>
       <c r="C1469" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1469" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1470" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1470" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="B1470" s="7" t="s">
         <v>992</v>
       </c>
-      <c r="B1470" s="7" t="s">
-        <v>993</v>
-      </c>
       <c r="C1470" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1470" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1471" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1471" s="7" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B1471" s="7" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C1471" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1471" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1473" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1473" s="20">
         <v>44807</v>
       </c>
@@ -55731,21 +55742,21 @@
       <c r="C1473" s="16"/>
       <c r="D1473" s="17"/>
     </row>
-    <row r="1474" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1474" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1474" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="B1474" s="7" t="s">
-        <v>995</v>
-      </c>
       <c r="C1474" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1474" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1475" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1475" s="7" t="s">
         <v>964</v>
       </c>
@@ -55753,32 +55764,32 @@
         <v>965</v>
       </c>
       <c r="C1475" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1475" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1476" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1476" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1476" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="B1476" s="7" t="s">
-        <v>997</v>
-      </c>
       <c r="C1476" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1476" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1477" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1477" s="7" t="s">
         <v>395</v>
       </c>
       <c r="B1477" s="7" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C1477" s="7" t="s">
         <v>217</v>
@@ -55787,77 +55798,77 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1478" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1478" s="7" t="s">
         <v>966</v>
       </c>
       <c r="B1478" s="7" t="s">
-        <v>967</v>
+        <v>1015</v>
       </c>
       <c r="C1478" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1478" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1479" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1479" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B1479" s="7" t="s">
-        <v>999</v>
+        <v>1015</v>
       </c>
       <c r="C1479" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1479" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1480" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1480" s="7" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B1480" s="7" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C1480" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1480" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1481" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1481" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1481" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="B1481" s="7" t="s">
-        <v>969</v>
-      </c>
       <c r="C1481" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1481" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1482" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1482" s="7" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B1482" s="7" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C1482" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1482" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1483" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1483" s="7" t="s">
         <v>518</v>
       </c>
@@ -55871,21 +55882,21 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1484" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1484" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="B1484" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="B1484" s="7" t="s">
+      <c r="C1484" s="7" t="s">
         <v>973</v>
-      </c>
-      <c r="C1484" s="7" t="s">
-        <v>974</v>
       </c>
       <c r="D1484" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1485" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1485" s="7" t="s">
         <v>55</v>
       </c>
@@ -55899,35 +55910,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1486" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1486" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B1486" s="7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C1486" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1486" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1487" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1487" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B1487" s="7" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C1487" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1487" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1488" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1488" s="7" t="s">
         <v>960</v>
       </c>
@@ -55938,10 +55949,10 @@
         <v>244</v>
       </c>
       <c r="D1488" s="7" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1489" s="7" t="s">
         <v>59</v>
       </c>
@@ -55955,63 +55966,63 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1490" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1490" s="7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B1490" s="7" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C1490" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1490" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1491" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1491" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1491" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="B1491" s="7" t="s">
-        <v>983</v>
-      </c>
       <c r="C1491" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1491" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1492" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1492" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B1492" s="7" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C1492" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1492" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1493" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1493" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1493" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="B1493" s="7" t="s">
-        <v>988</v>
-      </c>
       <c r="C1493" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1493" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1494" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1494" s="7" t="s">
         <v>64</v>
       </c>
@@ -56025,35 +56036,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1495" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1495" s="7" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B1495" s="7" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C1495" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1495" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1496" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1496" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1496" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="B1496" s="7" t="s">
-        <v>991</v>
-      </c>
       <c r="C1496" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1496" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1497" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1497" s="7" t="s">
         <v>66</v>
       </c>
@@ -56067,35 +56078,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1498" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1498" s="7" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B1498" s="7" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C1498" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1498" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1499" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1499" s="7" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B1499" s="7" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C1499" s="7" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D1499" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="1501" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1501" s="20">
         <v>44808</v>
       </c>
@@ -56103,7 +56114,7 @@
       <c r="C1501" s="16"/>
       <c r="D1501" s="17"/>
     </row>
-    <row r="1502" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1502" s="7" t="s">
         <v>382</v>
       </c>
@@ -56117,7 +56128,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1503" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1503" s="7" t="s">
         <v>180</v>
       </c>
@@ -56131,12 +56142,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1504" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1504" s="7" t="s">
         <v>395</v>
       </c>
       <c r="B1504" s="7" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C1504" s="7" t="s">
         <v>217</v>
@@ -56145,9 +56156,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1505" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1505" s="7" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B1505" s="7" t="s">
         <v>374</v>
@@ -56159,7 +56170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1506" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1506" s="7" t="s">
         <v>518</v>
       </c>
@@ -56173,7 +56184,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1507" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1507" s="7" t="s">
         <v>373</v>
       </c>
@@ -56187,7 +56198,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1508" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1508" s="7" t="s">
         <v>55</v>
       </c>
@@ -56201,7 +56212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1509" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1509" s="7" t="s">
         <v>376</v>
       </c>
@@ -56215,7 +56226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1510" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1510" s="7" t="s">
         <v>960</v>
       </c>
@@ -56226,10 +56237,10 @@
         <v>244</v>
       </c>
       <c r="D1510" s="7" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="1511" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1511" s="7" t="s">
         <v>59</v>
       </c>
@@ -56243,7 +56254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1512" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1512" s="7" t="s">
         <v>64</v>
       </c>
@@ -56257,7 +56268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1513" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1513" s="7" t="s">
         <v>312</v>
       </c>
@@ -56271,7 +56282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1514" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1514" s="7" t="s">
         <v>66</v>
       </c>
@@ -56285,7 +56296,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1515" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1515" s="7" t="s">
         <v>377</v>
       </c>
@@ -56299,7 +56310,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1516" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1516" s="7" t="s">
         <v>380</v>
       </c>
@@ -56313,21 +56324,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1517" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1517" s="7" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B1517" s="7" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C1517" s="7" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D1517" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="1519" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1519" s="20">
         <v>44809</v>
       </c>
@@ -56335,21 +56346,21 @@
       <c r="C1519" s="16"/>
       <c r="D1519" s="17"/>
     </row>
-    <row r="1520" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1520" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1520" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="B1520" s="7" t="s">
-        <v>995</v>
-      </c>
       <c r="C1520" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1520" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1521" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1521" s="7" t="s">
         <v>964</v>
       </c>
@@ -56357,13 +56368,13 @@
         <v>965</v>
       </c>
       <c r="C1521" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1521" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1522" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1522" s="7" t="s">
         <v>382</v>
       </c>
@@ -56377,21 +56388,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1523" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1523" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1523" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="B1523" s="7" t="s">
-        <v>997</v>
-      </c>
       <c r="C1523" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1523" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1524" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1524" s="7" t="s">
         <v>180</v>
       </c>
@@ -56405,79 +56416,79 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1525" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1525" s="7" t="s">
         <v>966</v>
       </c>
       <c r="B1525" s="7" t="s">
-        <v>967</v>
+        <v>1015</v>
       </c>
       <c r="C1525" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1525" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1526" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1526" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B1526" s="7" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C1526" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1526" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1527" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1527" s="7" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B1527" s="7" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C1527" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1527" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1528" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1528" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1528" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="B1528" s="7" t="s">
-        <v>969</v>
-      </c>
       <c r="C1528" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1528" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1529" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1529" s="7" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B1529" s="7" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C1529" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1529" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1530" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1530" s="7" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B1530" s="7" t="s">
         <v>374</v>
@@ -56489,217 +56500,490 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1531" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1531" s="7" t="s">
-        <v>972</v>
+        <v>1028</v>
       </c>
       <c r="B1531" s="7" t="s">
-        <v>973</v>
+        <v>1029</v>
       </c>
       <c r="C1531" s="7" t="s">
-        <v>974</v>
+        <v>1019</v>
       </c>
       <c r="D1531" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1532" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1532" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="B1532" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C1532" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="D1532" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1533" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B1532" s="7" t="s">
+      <c r="B1533" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C1532" s="7" t="s">
+      <c r="C1533" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D1532" s="7" t="s">
+      <c r="D1533" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="1533" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1533" s="7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B1533" s="7" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C1533" s="7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D1533" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="1534" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1534" s="7" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B1534" s="7" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C1534" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1534" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1535" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1535" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1535" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C1535" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1535" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1536" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B1535" s="7" t="s">
+      <c r="B1536" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C1535" s="7" t="s">
+      <c r="C1536" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D1535" s="7" t="s">
+      <c r="D1536" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="1536" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1536" s="7" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B1536" s="7" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C1536" s="7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D1536" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="1537" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1537" s="7" t="s">
-        <v>982</v>
+        <v>1006</v>
       </c>
       <c r="B1537" s="7" t="s">
-        <v>983</v>
+        <v>1007</v>
       </c>
       <c r="C1537" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1537" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1538" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1538" s="7" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B1538" s="7" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
       <c r="C1538" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1538" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1539" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1539" s="7" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B1539" s="7" t="s">
-        <v>988</v>
+        <v>968</v>
       </c>
       <c r="C1539" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1539" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1540" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1540" s="7" t="s">
-        <v>1010</v>
+        <v>986</v>
       </c>
       <c r="B1540" s="7" t="s">
-        <v>1011</v>
+        <v>987</v>
       </c>
       <c r="C1540" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1540" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1541" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1541" s="7" t="s">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="B1541" s="7" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="C1541" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D1541" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1542" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1542" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1542" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1542" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1542" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1543" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B1542" s="7" t="s">
+      <c r="B1543" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C1542" s="7" t="s">
+      <c r="C1543" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="D1542" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1543" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1543" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C1543" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="D1543" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="1544" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1544" s="7" t="s">
-        <v>1012</v>
+        <v>377</v>
       </c>
       <c r="B1544" s="7" t="s">
-        <v>1013</v>
+        <v>378</v>
       </c>
       <c r="C1544" s="7" t="s">
-        <v>1021</v>
+        <v>379</v>
       </c>
       <c r="D1544" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1545" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1545" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1545" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1545" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="1545" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1545" s="7" t="s">
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1546" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B1545" s="7" t="s">
+      <c r="B1546" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C1545" s="7" t="s">
+      <c r="C1546" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D1545" s="7" t="s">
+      <c r="D1546" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="1546" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1548" s="20">
+        <v>44810</v>
+      </c>
+      <c r="B1548" s="16"/>
+      <c r="C1548" s="16"/>
+      <c r="D1548" s="17"/>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1549" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1549" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C1549" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1549" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1550" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="B1550" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="C1550" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1550" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1551" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1551" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1551" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1551" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1552" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="B1552" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1552" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1552" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1553" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1553" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1553" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1553" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1554" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1554" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="C1554" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1554" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1555" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1555" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C1555" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1555" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1556" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1556" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1556" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1556" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1557" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="B1557" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C1557" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="D1557" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1558" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1558" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C1558" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1558" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1559" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1559" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C1559" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1559" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1560" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1560" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C1560" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1560" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1561" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1561" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C1561" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1561" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1562" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="B1562" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="C1562" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1562" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1563" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="B1563" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C1563" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1563" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1564" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B1564" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1564" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1564" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1565" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1565" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1565" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1565" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1566" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B1566" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1566" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D1566" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1546" xr:uid="{B729E0AF-DE06-4017-8E83-938C54D65EB2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
